--- a/Test Case.xlsx
+++ b/Test Case.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1843e413d66d02d9/Documents/Github/SoftwareTesting/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="44" documentId="11_F25DC773A252ABDACC104865C91B7E3E5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{204FCC98-B16A-482A-8BF6-49F03D2479E0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Info" sheetId="1" r:id="rId1"/>
+    <sheet name="sign up" sheetId="2" r:id="rId2"/>
+    <sheet name="dropdown" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +26,49 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>2020 testing bootcamp</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Android notes</t>
+  </si>
+  <si>
+    <t>Prereq.</t>
+  </si>
+  <si>
+    <t>Ready to test</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Block/Skip</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,12 +78,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +116,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +400,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B43EF5-603E-4949-A1E1-3994197F212D}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0DDA2A40-3956-4C93-BE7C-E5F1EE749B7A}">
+          <x14:formula1>
+            <xm:f>dropdown!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D4:D6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075B06C5-83A9-47AA-8296-C93A6E677EBD}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>